--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,12 @@
     <t>useless</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -73,166 +73,157 @@
     <t>love</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>quality</t>
@@ -241,10 +232,16 @@
     <t>coffee</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>makes</t>
@@ -253,10 +250,7 @@
     <t>little</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>job</t>
   </si>
   <si>
     <t>like</t>
@@ -265,16 +259,16 @@
     <t>one</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>really</t>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -635,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,13 +772,13 @@
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.8840579710144928</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4108527131782946</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.8984375</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3838383838383838</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8591331269349846</v>
+        <v>0.8575851393188855</v>
       </c>
       <c r="L6">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M6">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3461538461538461</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1621621621621622</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>0.7586206896551724</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +998,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.7316017316017316</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L9">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="M9">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1024,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.7272727272727273</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L10">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1050,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7220338983050848</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L11">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="M11">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1076,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.6818181818181818</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1100,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1134,13 +1128,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6364365971107544</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L14">
-        <v>793</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>793</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1152,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>453</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1160,13 +1154,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6323529411764706</v>
+        <v>0.6412520064205457</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>799</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>799</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1178,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1186,13 +1180,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6285714285714286</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1204,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1212,13 +1206,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6222222222222222</v>
+        <v>0.609375</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1230,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1238,13 +1232,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6027397260273972</v>
+        <v>0.6</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1256,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1264,13 +1258,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.5964912280701754</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1282,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1290,13 +1284,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.59375</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1308,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1316,13 +1310,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5846153846153846</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1334,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1342,13 +1336,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5811965811965812</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L22">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1360,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1368,13 +1362,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5657142857142857</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L23">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="M23">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1386,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1394,13 +1388,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5625</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1412,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1420,13 +1414,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5576923076923077</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L25">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1438,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1446,13 +1440,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5389221556886228</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L26">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M26">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1464,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1472,13 +1466,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5131578947368421</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1490,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1498,13 +1492,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4819277108433735</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L28">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="M28">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1516,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1524,13 +1518,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4819277108433735</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1542,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1550,13 +1544,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4761904761904762</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1568,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1576,13 +1570,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.47</v>
+        <v>0.481203007518797</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1594,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1602,13 +1596,13 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4444444444444444</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1620,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1628,13 +1622,13 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4360902255639098</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L33">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1646,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1654,7 +1648,7 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.4313725490196079</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L34">
         <v>22</v>
@@ -1672,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1680,13 +1674,13 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.3852140077821012</v>
+        <v>0.44</v>
       </c>
       <c r="L35">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1698,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>158</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1706,13 +1700,13 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.3848039215686275</v>
+        <v>0.3995098039215687</v>
       </c>
       <c r="L36">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M36">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1724,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1732,13 +1726,13 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>0.3823529411764706</v>
+        <v>0.3970588235294117</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1750,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1758,13 +1752,13 @@
         <v>50</v>
       </c>
       <c r="K38">
-        <v>0.3709677419354839</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1776,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1784,13 +1778,13 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>0.3643835616438356</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L39">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M39">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1802,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1810,13 +1804,13 @@
         <v>52</v>
       </c>
       <c r="K40">
-        <v>0.3525179856115108</v>
+        <v>0.3307392996108949</v>
       </c>
       <c r="L40">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="M40">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1828,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>90</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1836,13 +1830,13 @@
         <v>53</v>
       </c>
       <c r="K41">
-        <v>0.3443708609271523</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L41">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1854,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1862,13 +1856,13 @@
         <v>54</v>
       </c>
       <c r="K42">
-        <v>0.3333333333333333</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L42">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1880,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1888,13 +1882,13 @@
         <v>55</v>
       </c>
       <c r="K43">
-        <v>0.3214285714285715</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1906,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1914,13 +1908,13 @@
         <v>56</v>
       </c>
       <c r="K44">
-        <v>0.3110047846889952</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L44">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M44">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1932,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1940,25 +1934,25 @@
         <v>57</v>
       </c>
       <c r="K45">
-        <v>0.3026315789473684</v>
+        <v>0.3</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1966,13 +1960,13 @@
         <v>58</v>
       </c>
       <c r="K46">
-        <v>0.2839506172839506</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1984,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>58</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1992,13 +1986,13 @@
         <v>59</v>
       </c>
       <c r="K47">
-        <v>0.2772277227722773</v>
+        <v>0.2680301399354144</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2010,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>73</v>
+        <v>680</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2018,13 +2012,13 @@
         <v>60</v>
       </c>
       <c r="K48">
-        <v>0.2755651237890204</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L48">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2036,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>673</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2044,25 +2038,25 @@
         <v>61</v>
       </c>
       <c r="K49">
-        <v>0.2706766917293233</v>
+        <v>0.234314980793854</v>
       </c>
       <c r="L49">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="M49">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>97</v>
+        <v>598</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2070,13 +2064,13 @@
         <v>62</v>
       </c>
       <c r="K50">
-        <v>0.2432432432432433</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L50">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="M50">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2088,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>84</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2096,13 +2090,13 @@
         <v>63</v>
       </c>
       <c r="K51">
-        <v>0.2391304347826087</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2114,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2122,13 +2116,13 @@
         <v>64</v>
       </c>
       <c r="K52">
-        <v>0.2263427109974425</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L52">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="M52">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2140,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>605</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2148,13 +2142,13 @@
         <v>65</v>
       </c>
       <c r="K53">
-        <v>0.2251655629139073</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L53">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="M53">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2166,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>585</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2174,25 +2168,25 @@
         <v>66</v>
       </c>
       <c r="K54">
-        <v>0.2147651006711409</v>
+        <v>0.2005420054200542</v>
       </c>
       <c r="L54">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="M54">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>117</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2200,13 +2194,13 @@
         <v>67</v>
       </c>
       <c r="K55">
-        <v>0.2123893805309734</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2218,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2226,13 +2220,13 @@
         <v>68</v>
       </c>
       <c r="K56">
-        <v>0.2037037037037037</v>
+        <v>0.1732456140350877</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2244,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>86</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2252,13 +2246,13 @@
         <v>69</v>
       </c>
       <c r="K57">
-        <v>0.1974921630094044</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L57">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M57">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2270,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2278,13 +2272,13 @@
         <v>70</v>
       </c>
       <c r="K58">
-        <v>0.1890243902439024</v>
+        <v>0.1527446300715991</v>
       </c>
       <c r="L58">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2296,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>133</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2304,13 +2298,13 @@
         <v>71</v>
       </c>
       <c r="K59">
-        <v>0.180327868852459</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2322,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>100</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2330,25 +2324,25 @@
         <v>72</v>
       </c>
       <c r="K60">
-        <v>0.1657608695652174</v>
+        <v>0.1362530413625304</v>
       </c>
       <c r="L60">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M60">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="N60">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>307</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2356,13 +2350,13 @@
         <v>73</v>
       </c>
       <c r="K61">
-        <v>0.162291169451074</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L61">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="M61">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2374,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>351</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2382,13 +2376,13 @@
         <v>74</v>
       </c>
       <c r="K62">
-        <v>0.1545454545454545</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="L62">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="M62">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2400,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>372</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2408,13 +2402,13 @@
         <v>75</v>
       </c>
       <c r="K63">
-        <v>0.1481481481481481</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="L63">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M63">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2426,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>230</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2434,13 +2428,13 @@
         <v>76</v>
       </c>
       <c r="K64">
-        <v>0.1469298245614035</v>
+        <v>0.1217712177121771</v>
       </c>
       <c r="L64">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="M64">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2452,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>389</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2460,13 +2454,13 @@
         <v>77</v>
       </c>
       <c r="K65">
-        <v>0.1328413284132841</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L65">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M65">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2478,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2486,13 +2480,13 @@
         <v>78</v>
       </c>
       <c r="K66">
-        <v>0.127147766323024</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="L66">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M66">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2504,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>254</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2512,25 +2506,25 @@
         <v>79</v>
       </c>
       <c r="K67">
-        <v>0.1218487394957983</v>
+        <v>0.09352517985611511</v>
       </c>
       <c r="L67">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M67">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>209</v>
+        <v>630</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2538,25 +2532,25 @@
         <v>80</v>
       </c>
       <c r="K68">
-        <v>0.1119221411192214</v>
+        <v>0.09337068160597572</v>
       </c>
       <c r="L68">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="M68">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>365</v>
+        <v>971</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2564,25 +2558,25 @@
         <v>81</v>
       </c>
       <c r="K69">
-        <v>0.09182209469153516</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L69">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="M69">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>633</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2590,25 +2584,25 @@
         <v>82</v>
       </c>
       <c r="K70">
-        <v>0.09158878504672897</v>
+        <v>0.07380073800738007</v>
       </c>
       <c r="L70">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="M70">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N70">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>972</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2616,25 +2610,25 @@
         <v>83</v>
       </c>
       <c r="K71">
-        <v>0.07763401109057301</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="L71">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M71">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N71">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="O71">
-        <v>0.02000000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2642,77 +2636,25 @@
         <v>84</v>
       </c>
       <c r="K72">
-        <v>0.06557377049180328</v>
+        <v>0.05212858384013901</v>
       </c>
       <c r="L72">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M72">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="73" spans="10:17">
-      <c r="J73" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K73">
-        <v>0.04344048653344917</v>
-      </c>
-      <c r="L73">
-        <v>50</v>
-      </c>
-      <c r="M73">
-        <v>56</v>
-      </c>
-      <c r="N73">
-        <v>0.89</v>
-      </c>
-      <c r="O73">
-        <v>0.11</v>
-      </c>
-      <c r="P73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="74" spans="10:17">
-      <c r="J74" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K74">
-        <v>0.03022339027595269</v>
-      </c>
-      <c r="L74">
-        <v>23</v>
-      </c>
-      <c r="M74">
-        <v>29</v>
-      </c>
-      <c r="N74">
-        <v>0.79</v>
-      </c>
-      <c r="O74">
-        <v>0.21</v>
-      </c>
-      <c r="P74" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>738</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
